--- a/Requisitos projecto 3 - JC_RE_VC.xlsx
+++ b/Requisitos projecto 3 - JC_RE_VC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AoR\40.Projeto 3_Vasco_RicardoE_JCastro\backend\project3-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8FECE7-27CA-47B3-9A47-B60F59900892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E79E9-23F7-4921-9D52-E1AAAE7BD69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
   <si>
     <t>Grupo</t>
   </si>
@@ -671,7 +671,9 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
@@ -918,9 +920,7 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="17" t="s">
@@ -1226,9 +1226,7 @@
       <c r="B50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="20" t="s">
@@ -1281,9 +1279,7 @@
       <c r="B55" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="C55" s="14"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
